--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Desc</t>
+  </si>
+  <si>
+    <t>EffectDesc</t>
   </si>
   <si>
     <t>EffectParam</t>
@@ -123,61 +126,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +172,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -199,29 +224,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -229,39 +240,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,25 +291,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,151 +447,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,20 +511,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,7 +552,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,40 +591,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,7 +1098,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1182,10 +1185,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1193,13 +1196,13 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>0.2</v>
@@ -1213,13 +1216,13 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>0.2</v>
@@ -1233,13 +1236,13 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1253,13 +1256,13 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2">
         <v>0.1</v>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="17040" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>ID</t>
   </si>
@@ -25,9 +25,18 @@
     <t>名称</t>
   </si>
   <si>
+    <t>icon名</t>
+  </si>
+  <si>
     <t>药物描述</t>
   </si>
   <si>
+    <t>制作材料</t>
+  </si>
+  <si>
+    <t>制作时长(分钟)</t>
+  </si>
+  <si>
     <t>效果描述</t>
   </si>
   <si>
@@ -55,9 +64,18 @@
     <t>Name</t>
   </si>
   <si>
+    <t>IconName</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
+    <t>MakeRes</t>
+  </si>
+  <si>
+    <t>MakeTime</t>
+  </si>
+  <si>
     <t>EffectDesc</t>
   </si>
   <si>
@@ -68,6 +86,9 @@
   </si>
   <si>
     <t>用蛇胆汁和蜂王浆熬制而成，可补气凝神，提升功力。</t>
+  </si>
+  <si>
+    <t>1001|50;1002|50</t>
   </si>
   <si>
     <t>战斗中增加弟子20%攻击。</t>
@@ -126,16 +147,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,18 +184,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,8 +200,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,14 +217,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,21 +225,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,9 +246,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,37 +285,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +515,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -513,22 +558,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,11 +578,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,166 +612,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,28 +1114,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="4.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.3727272727273" style="2" customWidth="1"/>
+    <col min="5" max="6" width="27.5454545454545" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.6272727272727" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7545454545455" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.8727272727273" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.6272727272727" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,146 +1155,218 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2">
         <v>0.2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="I5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2">
         <v>0.2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="I6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2">
         <v>0.1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="I8" s="2">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D15">
+  <sortState ref="A3:G15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17040" windowHeight="11540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -88,10 +88,10 @@
     <t>用蛇胆汁和蜂王浆熬制而成，可补气凝神，提升功力。</t>
   </si>
   <si>
-    <t>1001|50;1002|50</t>
-  </si>
-  <si>
-    <t>战斗中增加弟子20%攻击。</t>
+    <t>1015|5;1016|5</t>
+  </si>
+  <si>
+    <t>战斗中增加弟子20%攻击</t>
   </si>
   <si>
     <t>莲花清神露</t>
@@ -100,7 +100,22 @@
     <t>莲花祛瘀，井水活血，两者同服，满血满魔。</t>
   </si>
   <si>
-    <t>战斗中增加弟子20%血量。</t>
+    <t>1017|5;1018|5</t>
+  </si>
+  <si>
+    <t>战斗开始时增加弟子20%血量</t>
+  </si>
+  <si>
+    <t>金针青蛇膏</t>
+  </si>
+  <si>
+    <t>金针即蜂尾，起麻痹之效；毒牙出蛇口，有瘫痪之用。</t>
+  </si>
+  <si>
+    <t>1021|5;1022|5</t>
+  </si>
+  <si>
+    <t>战斗中降低敌人10%功力</t>
   </si>
   <si>
     <t>还魂丹</t>
@@ -109,16 +124,10 @@
     <t>由鹿茸、灵芝两味上等药材制成，能让人起死回生。</t>
   </si>
   <si>
-    <t>战斗中复活一名弟子。</t>
-  </si>
-  <si>
-    <t>金针青蛇散</t>
-  </si>
-  <si>
-    <t>金针即蜂尾，起麻痹之效；毒牙出蛇口，有瘫痪之用。</t>
-  </si>
-  <si>
-    <t>战斗中降低敌人10%功力。</t>
+    <t>1019|5;1020|5</t>
+  </si>
+  <si>
+    <t>战斗中复活一名弟子</t>
   </si>
 </sst>
 </file>
@@ -127,8 +136,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -148,22 +157,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,11 +201,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,16 +261,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,75 +278,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,37 +315,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,145 +465,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,17 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +544,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,24 +583,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,36 +621,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +639,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,24 +1128,26 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="4.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.8727272727273" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.3727272727273" style="2" customWidth="1"/>
-    <col min="5" max="6" width="27.5454545454545" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.6272727272727" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.7545454545455" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.8727272727273" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.8727272727273" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.6272727272727" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,7 +1234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +1277,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
@@ -1275,7 +1286,7 @@
         <v>0.2</v>
       </c>
       <c r="I5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1292,19 +1303,19 @@
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2">
         <v>0.2</v>
       </c>
       <c r="I6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1312,28 +1323,28 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1341,28 +1352,28 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21290" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>ID</t>
   </si>
@@ -49,9 +49,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>EffectParam</t>
+  </si>
+  <si>
+    <t>UnlockLevel</t>
   </si>
   <si>
     <t>赤胆壮气丸</t>
@@ -136,8 +136,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -156,38 +156,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,26 +194,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,7 +256,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,48 +276,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,187 +315,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,16 +525,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,24 +555,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,17 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -607,17 +589,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,133 +639,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,26 +1128,26 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.12727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.3727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.8727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.8727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.6272727272727" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7545454545455" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.3636363636364" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.8727272727273" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.6272727272727" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1202,61 +1202,64 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21290" windowHeight="11540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -88,12 +88,18 @@
     <t>用蛇胆汁和蜂王浆熬制而成，可补气凝神，提升功力。</t>
   </si>
   <si>
-    <t>1015|5;1016|5</t>
+    <t>1015|3;1016|5</t>
   </si>
   <si>
     <t>战斗中增加弟子20%攻击</t>
   </si>
   <si>
+    <t>snakegall</t>
+  </si>
+  <si>
+    <t>蛇胆</t>
+  </si>
+  <si>
     <t>莲花清神露</t>
   </si>
   <si>
@@ -106,28 +112,70 @@
     <t>战斗开始时增加弟子20%血量</t>
   </si>
   <si>
+    <t>royaljelly</t>
+  </si>
+  <si>
+    <t>蜂王浆</t>
+  </si>
+  <si>
     <t>金针青蛇膏</t>
   </si>
   <si>
     <t>金针即蜂尾，起麻痹之效；毒牙出蛇口，有瘫痪之用。</t>
   </si>
   <si>
-    <t>1021|5;1022|5</t>
+    <t>1021|3;1022|3</t>
   </si>
   <si>
     <t>战斗中降低敌人10%功力</t>
   </si>
   <si>
+    <t>lotus</t>
+  </si>
+  <si>
+    <t>莲花</t>
+  </si>
+  <si>
     <t>还魂丹</t>
   </si>
   <si>
     <t>由鹿茸、灵芝两味上等药材制成，能让人起死回生。</t>
   </si>
   <si>
-    <t>1019|5;1020|5</t>
+    <t>1019|3;1020|5</t>
   </si>
   <si>
     <t>战斗中复活一名弟子</t>
+  </si>
+  <si>
+    <t>wellwater</t>
+  </si>
+  <si>
+    <t>古井水</t>
+  </si>
+  <si>
+    <t>antier</t>
+  </si>
+  <si>
+    <t>鹿茸</t>
+  </si>
+  <si>
+    <t>lingzhi</t>
+  </si>
+  <si>
+    <t>灵芝</t>
+  </si>
+  <si>
+    <t>beeneedle</t>
+  </si>
+  <si>
+    <t>蜂针</t>
+  </si>
+  <si>
+    <t>poisonfang</t>
+  </si>
+  <si>
+    <t>毒牙</t>
   </si>
 </sst>
 </file>
@@ -135,9 +183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -158,6 +206,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -165,6 +268,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -172,7 +319,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,9 +327,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,107 +341,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,37 +363,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,145 +525,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,28 +572,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,17 +626,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,40 +669,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,31 +1171,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8727272727273" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.12727272727273" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.3727272727273" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.8727272727273" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.8727272727273" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.6272727272727" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.7545454545455" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.3636363636364" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.8727272727273" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.6272727272727" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7583333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.3666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +1314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1280,7 +1331,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
@@ -1291,28 +1342,40 @@
       <c r="I5" s="2">
         <v>4</v>
       </c>
+      <c r="K5" s="2">
+        <v>1015</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2">
         <v>0.2</v>
@@ -1320,28 +1383,40 @@
       <c r="I6" s="2">
         <v>5</v>
       </c>
+      <c r="K6" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2">
         <v>0.1</v>
@@ -1349,34 +1424,114 @@
       <c r="I7" s="2">
         <v>6</v>
       </c>
+      <c r="K7" s="2">
+        <v>1017</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2">
         <v>8</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1018</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="11:14">
+      <c r="K9" s="2">
+        <v>1019</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="11:14">
+      <c r="K10" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="11:14">
+      <c r="K11" s="2">
+        <v>1021</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="11:14">
+      <c r="K12" s="2">
+        <v>1022</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -118,13 +118,16 @@
     <t>蜂王浆</t>
   </si>
   <si>
+    <t>收集</t>
+  </si>
+  <si>
     <t>金针青蛇膏</t>
   </si>
   <si>
     <t>金针即蜂尾，起麻痹之效；毒牙出蛇口，有瘫痪之用。</t>
   </si>
   <si>
-    <t>1021|3;1022|3</t>
+    <t>1022|3;1021|5</t>
   </si>
   <si>
     <t>战斗中降低敌人10%功力</t>
@@ -160,6 +163,9 @@
     <t>鹿茸</t>
   </si>
   <si>
+    <t>附属</t>
+  </si>
+  <si>
     <t>lingzhi</t>
   </si>
   <si>
@@ -170,6 +176,9 @@
   </si>
   <si>
     <t>蜂针</t>
+  </si>
+  <si>
+    <t>收集附属</t>
   </si>
   <si>
     <t>poisonfang</t>
@@ -183,9 +192,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -204,25 +213,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,54 +251,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,38 +275,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,8 +327,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,43 +372,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,31 +504,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,85 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,17 +581,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,11 +620,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,30 +659,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -664,8 +673,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,10 +684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +696,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,12 +1180,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1190,7 +1199,7 @@
     <col min="7" max="7" width="26.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.7583333333333" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.3666666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
     <col min="11" max="11" width="5.375" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="7" style="2" customWidth="1"/>
@@ -1355,7 +1364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1395,28 +1404,31 @@
       <c r="N6" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="O6" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2">
         <v>0.1</v>
@@ -1428,13 +1440,16 @@
         <v>1017</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>37</v>
+      <c r="O7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1442,22 +1457,22 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -1469,27 +1484,30 @@
         <v>1018</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="9" spans="11:14">
+    <row r="9" spans="11:15">
       <c r="K9" s="2">
         <v>1019</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>45</v>
+      <c r="O9" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="11:14">
@@ -1497,41 +1515,47 @@
         <v>1020</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="11" spans="11:14">
+    <row r="11" spans="11:15">
       <c r="K11" s="2">
         <v>1021</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="12" spans="11:14">
+    <row r="12" spans="11:15">
       <c r="K12" s="2">
         <v>1022</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -43,9 +43,6 @@
     <t>效果参数</t>
   </si>
   <si>
-    <t>解锁等级</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
   </si>
   <si>
     <t>EffectParam</t>
-  </si>
-  <si>
-    <t>UnlockLevel</t>
   </si>
   <si>
     <t>赤胆壮气丸</t>
@@ -192,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,30 +208,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,8 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,7 +298,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,51 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -335,23 +343,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,55 +366,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,127 +510,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,26 +575,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,30 +595,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,11 +625,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,85 +690,124 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,46 +816,7 @@
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,12 +1174,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1198,16 +1192,15 @@
     <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.7583333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.3666666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="5.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="5.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,330 +1225,306 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2">
         <v>0.2</v>
       </c>
-      <c r="I5" s="2">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="J5" s="2">
         <v>1015</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2">
         <v>0.2</v>
       </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J6" s="2">
         <v>1016</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2">
         <v>0.1</v>
       </c>
-      <c r="I7" s="2">
-        <v>6</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J7" s="2">
         <v>1017</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
-        <v>8</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="J8" s="2">
         <v>1018</v>
       </c>
+      <c r="K8" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="10:14">
+      <c r="J9" s="2">
+        <v>1019</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="11:15">
-      <c r="K9" s="2">
-        <v>1019</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="2" t="s">
+    </row>
+    <row r="10" spans="10:13">
+      <c r="J10" s="2">
+        <v>1020</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="M10" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="10" spans="11:14">
-      <c r="K10" s="2">
-        <v>1020</v>
-      </c>
-      <c r="L10" s="2" t="s">
+    <row r="11" spans="10:14">
+      <c r="J11" s="2">
+        <v>1021</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="11:15">
-      <c r="K11" s="2">
-        <v>1021</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="2" t="s">
+    </row>
+    <row r="12" spans="10:14">
+      <c r="J12" s="2">
+        <v>1022</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="11:15">
-      <c r="K12" s="2">
-        <v>1022</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="M12" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -82,7 +82,7 @@
     <t>用蛇胆汁和蜂王浆熬制而成，可补气凝神，提升功力。</t>
   </si>
   <si>
-    <t>1015|3;1016|5</t>
+    <t>1015|5;1016|5</t>
   </si>
   <si>
     <t>战斗中增加弟子20%攻击</t>
@@ -186,8 +186,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -208,75 +208,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,7 +290,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -298,22 +337,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,30 +350,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -366,67 +366,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,115 +534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,11 +575,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,50 +664,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,133 +690,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,7 +1179,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1441,7 +1441,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>41</v>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -43,6 +43,9 @@
     <t>效果参数</t>
   </si>
   <si>
+    <t>售价</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
   </si>
   <si>
     <t>EffectParam</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
   <si>
     <t>赤胆壮气丸</t>
@@ -186,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -208,74 +214,111 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -290,64 +333,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -366,73 +372,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,109 +546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +577,74 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,84 +678,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,133 +696,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,12 +1180,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1191,16 +1197,16 @@
     <col min="5" max="5" width="14.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.7583333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="5.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="8" max="9" width="10.7583333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="5.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,306 +1231,330 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2">
         <v>0.2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="I5" s="2">
+        <v>200</v>
+      </c>
+      <c r="K5" s="2">
         <v>1015</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2">
         <v>0.2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="I6" s="2">
+        <v>500</v>
+      </c>
+      <c r="K6" s="2">
         <v>1016</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="O6" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2">
         <v>0.1</v>
       </c>
-      <c r="J7" s="2">
+      <c r="I7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="2">
         <v>1017</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2">
         <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="2">
+      <c r="I8" s="2">
+        <v>2500</v>
+      </c>
+      <c r="K8" s="2">
         <v>1018</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="10:14">
-      <c r="J9" s="2">
+    <row r="9" spans="11:15">
+      <c r="K9" s="2">
         <v>1019</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="O9" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="10" spans="10:13">
-      <c r="J10" s="2">
+    <row r="10" spans="11:14">
+      <c r="K10" s="2">
         <v>1020</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="11" spans="10:14">
-      <c r="J11" s="2">
+    <row r="11" spans="11:15">
+      <c r="K11" s="2">
         <v>1021</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="O11" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="12" spans="10:14">
-      <c r="J12" s="2">
+    <row r="12" spans="11:15">
+      <c r="K12" s="2">
         <v>1022</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Price</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
     <t>赤胆壮气丸</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>战斗中增加弟子20%攻击</t>
   </si>
   <si>
+    <t>icon1</t>
+  </si>
+  <si>
     <t>snakegall</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t>战斗开始时增加弟子20%血量</t>
   </si>
   <si>
+    <t>icon2</t>
+  </si>
+  <si>
     <t>royaljelly</t>
   </si>
   <si>
@@ -133,6 +142,9 @@
     <t>战斗中降低敌人10%功力</t>
   </si>
   <si>
+    <t>icon3</t>
+  </si>
+  <si>
     <t>lotus</t>
   </si>
   <si>
@@ -149,6 +161,9 @@
   </si>
   <si>
     <t>战斗中复活一名弟子</t>
+  </si>
+  <si>
+    <t>icon4</t>
   </si>
   <si>
     <t>wellwater</t>
@@ -194,8 +209,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,9 +229,108 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,44 +343,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,83 +371,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -372,43 +387,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,139 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,6 +596,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -588,6 +636,36 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,71 +688,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,28 +1200,27 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="10.7583333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="5.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.12727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.3727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.8727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.8727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.6272727272727" style="2" customWidth="1"/>
+    <col min="8" max="10" width="10.7545454545455" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.37272727272727" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="7" style="2" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1234,8 +1248,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,8 +1280,11 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1292,8 +1312,11 @@
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1320,6 +1343,9 @@
       </c>
       <c r="I4" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1327,22 +1353,22 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2">
         <v>0.2</v>
@@ -1350,17 +1376,20 @@
       <c r="I5" s="2">
         <v>200</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="K5" s="2">
         <v>1015</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1368,22 +1397,22 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2">
         <v>0.2</v>
@@ -1391,20 +1420,23 @@
       <c r="I6" s="2">
         <v>500</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K6" s="2">
         <v>1016</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1412,22 +1444,22 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
         <v>0.1</v>
@@ -1435,20 +1467,23 @@
       <c r="I7" s="2">
         <v>1000</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="K7" s="2">
         <v>1017</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1456,22 +1491,22 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2">
         <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -1479,17 +1514,20 @@
       <c r="I8" s="2">
         <v>2500</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="K8" s="2">
         <v>1018</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="11:15">
@@ -1497,16 +1535,16 @@
         <v>1019</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="11:14">
@@ -1514,13 +1552,13 @@
         <v>1020</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="11:15">
@@ -1528,16 +1566,16 @@
         <v>1021</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="11:15">
@@ -1545,16 +1583,16 @@
         <v>1022</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>Id</t>
@@ -1200,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5:J8"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1307,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
@@ -1318,34 +1321,34 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="13.5" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1353,22 +1356,22 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2">
         <v>0.2</v>
@@ -1377,19 +1380,19 @@
         <v>200</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2">
         <v>1015</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1397,22 +1400,22 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2">
         <v>0.2</v>
@@ -1421,22 +1424,22 @@
         <v>500</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2">
         <v>1016</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1444,22 +1447,22 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2">
         <v>0.1</v>
@@ -1468,22 +1471,22 @@
         <v>1000</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2">
         <v>1017</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1491,22 +1494,22 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2">
         <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -1515,19 +1518,19 @@
         <v>2500</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="2">
         <v>1018</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="11:15">
@@ -1535,16 +1538,16 @@
         <v>1019</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="11:14">
@@ -1552,13 +1555,13 @@
         <v>1020</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="11:15">
@@ -1566,16 +1569,16 @@
         <v>1021</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="O11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="11:15">
@@ -1583,16 +1586,16 @@
         <v>1022</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="O12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14070"/>
+    <workbookView windowWidth="31730" windowHeight="14830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>ID</t>
   </si>
@@ -25,27 +25,27 @@
     <t>名称</t>
   </si>
   <si>
+    <t>药物描述</t>
+  </si>
+  <si>
+    <t>制作材料</t>
+  </si>
+  <si>
+    <t>制作时长(分钟)</t>
+  </si>
+  <si>
+    <t>效果描述</t>
+  </si>
+  <si>
+    <t>效果参数</t>
+  </si>
+  <si>
+    <t>售价</t>
+  </si>
+  <si>
     <t>icon名</t>
   </si>
   <si>
-    <t>药物描述</t>
-  </si>
-  <si>
-    <t>制作材料</t>
-  </si>
-  <si>
-    <t>制作时长(分钟)</t>
-  </si>
-  <si>
-    <t>效果描述</t>
-  </si>
-  <si>
-    <t>效果参数</t>
-  </si>
-  <si>
-    <t>售价</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -64,9 +64,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>IconName</t>
-  </si>
-  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -100,7 +97,7 @@
     <t>战斗中增加弟子20%攻击</t>
   </si>
   <si>
-    <t>icon1</t>
+    <t>arrogancemaru</t>
   </si>
   <si>
     <t>snakegall</t>
@@ -121,7 +118,7 @@
     <t>战斗开始时增加弟子20%血量</t>
   </si>
   <si>
-    <t>icon2</t>
+    <t>sobermaru</t>
   </si>
   <si>
     <t>royaljelly</t>
@@ -145,7 +142,7 @@
     <t>战斗中降低敌人10%功力</t>
   </si>
   <si>
-    <t>icon3</t>
+    <t>toxicmaru</t>
   </si>
   <si>
     <t>lotus</t>
@@ -166,7 +163,7 @@
     <t>战斗中复活一名弟子</t>
   </si>
   <si>
-    <t>icon4</t>
+    <t>revivalmaru</t>
   </si>
   <si>
     <t>wellwater</t>
@@ -210,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -232,17 +229,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,122 +334,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,25 +387,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,31 +543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,115 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,50 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -654,6 +607,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,6 +650,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -696,16 +684,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,32 +1195,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="4.37272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.8727272727273" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.12727272727273" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.3727272727273" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.8727272727273" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.8727272727273" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.6272727272727" style="2" customWidth="1"/>
-    <col min="8" max="10" width="10.7545454545455" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="50.3727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.8727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.8727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.6272727272727" style="2" customWidth="1"/>
+    <col min="7" max="9" width="10.7545454545455" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,11 +1247,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1283,11 +1276,8 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1301,25 +1291,22 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,255 +1334,240 @@
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>200</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>200</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="2">
+        <v>1015</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1015</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>500</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>500</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="2">
+        <v>1016</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1016</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="2">
+        <v>1017</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1017</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="2">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2500</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="2">
+        <v>1018</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1018</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="10:14">
+      <c r="J9" s="2">
+        <v>1019</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="11:15">
-      <c r="K9" s="2">
-        <v>1019</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="2" t="s">
+    </row>
+    <row r="10" spans="10:13">
+      <c r="J10" s="2">
+        <v>1020</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="11:14">
-      <c r="K10" s="2">
-        <v>1020</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="10:14">
+      <c r="J11" s="2">
+        <v>1021</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="11:15">
-      <c r="K11" s="2">
-        <v>1021</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="2" t="s">
+    </row>
+    <row r="12" spans="10:14">
+      <c r="J12" s="2">
+        <v>1022</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="11:15">
-      <c r="K12" s="2">
-        <v>1022</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>60</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31730" windowHeight="14830"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -228,6 +228,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -235,70 +305,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,9 +350,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,52 +371,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,13 +387,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,31 +507,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,31 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,91 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,30 +592,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,6 +641,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -693,16 +684,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,31 +1195,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8727272727273" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.3727272727273" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.8727272727273" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.8727272727273" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.6272727272727" style="2" customWidth="1"/>
-    <col min="7" max="9" width="10.7545454545455" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="2" customWidth="1"/>
+    <col min="7" max="10" width="10.7583333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1363,20 +1363,20 @@
       <c r="I5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1015</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1404,23 +1404,23 @@
       <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1016</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>103</v>
       </c>
@@ -1448,23 +1448,23 @@
       <c r="I7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>1017</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>104</v>
       </c>
@@ -1492,81 +1492,81 @@
       <c r="I8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>1018</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="10:14">
-      <c r="J9" s="2">
+    <row r="9" spans="11:15">
+      <c r="K9" s="2">
         <v>1019</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="10:13">
-      <c r="J10" s="2">
+    <row r="10" spans="11:14">
+      <c r="K10" s="2">
         <v>1020</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="10:14">
-      <c r="J11" s="2">
+    <row r="11" spans="11:15">
+      <c r="K11" s="2">
         <v>1021</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="10:14">
-      <c r="J12" s="2">
+    <row r="12" spans="11:15">
+      <c r="K12" s="2">
         <v>1022</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -136,7 +136,7 @@
     <t>金针即蜂尾，起麻痹之效；毒牙出蛇口，有瘫痪之用。</t>
   </si>
   <si>
-    <t>1022|3;1021|5</t>
+    <t>1022|5;1021|5</t>
   </si>
   <si>
     <t>战斗中降低敌人10%功力</t>
@@ -157,7 +157,7 @@
     <t>由鹿茸、灵芝两味上等药材制成，能让人起死回生。</t>
   </si>
   <si>
-    <t>1019|3;1020|5</t>
+    <t>1019|5;1020|5</t>
   </si>
   <si>
     <t>战斗中复活一名弟子</t>
@@ -207,9 +207,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -228,14 +228,104 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -244,8 +334,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,82 +344,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,36 +371,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,31 +387,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,151 +531,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,32 +596,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,16 +630,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,29 +679,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,7 +1200,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -207,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -228,6 +228,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -235,6 +265,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -242,8 +295,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -251,22 +327,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,41 +341,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,44 +371,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,13 +387,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,121 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,25 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,24 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -625,6 +607,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,8 +640,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,17 +661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -693,16 +675,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,7 +1200,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1358,7 +1358,7 @@
         <v>0.2</v>
       </c>
       <c r="H5" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1399,7 +1399,7 @@
         <v>0.2</v>
       </c>
       <c r="H6" s="2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
@@ -1443,7 +1443,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="2">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>41</v>
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>2500</v>
+        <v>150</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>48</v>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -25,6 +25,9 @@
     <t>名称</t>
   </si>
   <si>
+    <t>战斗使用等级条件（讲武堂等级）</t>
+  </si>
+  <si>
     <t>药物描述</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>UseLevelRequire</t>
   </si>
   <si>
     <t>Desc</t>
@@ -207,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -228,6 +234,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -236,28 +317,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -273,16 +349,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,15 +364,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,60 +377,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,13 +393,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +537,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,157 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,28 +602,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,23 +644,43 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,24 +699,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -702,7 +708,7 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +717,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,31 +1201,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="2" customWidth="1"/>
-    <col min="7" max="10" width="10.7583333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="2" max="3" width="10.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="2" customWidth="1"/>
+    <col min="8" max="11" width="10.7583333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,51 +1253,57 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -1300,278 +1312,296 @@
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2">
         <v>0.2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>50</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2">
         <v>1015</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2">
         <v>0.2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>50</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2">
         <v>1016</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="P6" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1017</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>50</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1017</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>150</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="J8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="2">
         <v>1018</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="9" spans="11:15">
-      <c r="K9" s="2">
+    <row r="9" spans="12:16">
+      <c r="L9" s="2">
         <v>1019</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="P9" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="10" spans="11:14">
-      <c r="K10" s="2">
+    <row r="10" spans="12:15">
+      <c r="L10" s="2">
         <v>1020</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="11" spans="11:15">
-      <c r="K11" s="2">
+    <row r="11" spans="12:16">
+      <c r="L11" s="2">
         <v>1021</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="P11" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="12" spans="11:15">
-      <c r="K12" s="2">
+    <row r="12" spans="12:16">
+      <c r="L12" s="2">
         <v>1022</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="M12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:G15">
+  <sortState ref="A3:H15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -213,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -234,6 +234,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -242,6 +263,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -251,120 +357,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +370,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -393,13 +393,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,169 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,21 +612,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -637,26 +622,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +637,41 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,10 +705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,16 +717,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,115 +735,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,7 +1206,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1361,7 +1361,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -1405,7 +1405,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>32</v>
@@ -1452,7 +1452,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>40</v>
@@ -1499,7 +1499,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -97,7 +97,7 @@
     <t>用蛇胆汁和蜂王浆熬制而成，可补气凝神，提升功力。</t>
   </si>
   <si>
-    <t>1015|5;1016|5</t>
+    <t>1015|5;1016|10</t>
   </si>
   <si>
     <t>战斗中增加弟子20%攻击</t>
@@ -118,7 +118,7 @@
     <t>莲花祛瘀，井水活血，两者同服，满血满魔。</t>
   </si>
   <si>
-    <t>1017|5;1018|5</t>
+    <t>1018|5;1017|10</t>
   </si>
   <si>
     <t>战斗开始时增加弟子20%血量</t>
@@ -234,10 +234,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,8 +249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +265,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -271,8 +323,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,21 +348,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -309,32 +355,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,36 +377,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -393,25 +393,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,43 +507,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,109 +555,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +606,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,30 +622,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,11 +643,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,13 +673,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -717,31 +717,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,100 +750,100 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,7 +1206,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -34,7 +34,7 @@
     <t>制作材料</t>
   </si>
   <si>
-    <t>制作时长(分钟)</t>
+    <t>制作时长，秒</t>
   </si>
   <si>
     <t>效果描述</t>
@@ -213,8 +213,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -234,6 +234,135 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -243,136 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,19 +393,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,163 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,15 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -622,6 +613,44 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,20 +670,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,42 +699,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,133 +717,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,7 +1206,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1215,7 +1215,7 @@
     <col min="2" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="50.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.625" style="2" customWidth="1"/>
     <col min="8" max="11" width="10.7583333333333" style="2" customWidth="1"/>
     <col min="12" max="12" width="5.375" style="2" customWidth="1"/>
@@ -1370,7 +1370,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="2">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>27</v>
@@ -1414,7 +1414,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="2">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>34</v>
@@ -1461,7 +1461,7 @@
         <v>41</v>
       </c>
       <c r="F7" s="2">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>42</v>
@@ -1508,7 +1508,7 @@
         <v>48</v>
       </c>
       <c r="F8" s="2">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>49</v>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -34,7 +34,7 @@
     <t>制作材料</t>
   </si>
   <si>
-    <t>制作时长，秒</t>
+    <t>制作时长，分钟</t>
   </si>
   <si>
     <t>效果描述</t>
@@ -213,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -235,14 +235,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +308,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -264,9 +347,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,29 +365,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,74 +377,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -393,85 +393,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,97 +555,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +602,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -613,44 +631,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,16 +679,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,133 +717,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,7 +1206,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1215,7 +1215,7 @@
     <col min="2" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="50.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.625" style="2" customWidth="1"/>
     <col min="8" max="11" width="10.7583333333333" style="2" customWidth="1"/>
     <col min="12" max="12" width="5.375" style="2" customWidth="1"/>
@@ -1370,7 +1370,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="2">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>27</v>
@@ -1414,7 +1414,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="2">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>34</v>
@@ -1461,7 +1461,7 @@
         <v>41</v>
       </c>
       <c r="F7" s="2">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>42</v>
@@ -1508,7 +1508,7 @@
         <v>48</v>
       </c>
       <c r="F8" s="2">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>49</v>

--- a/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
+++ b/Tables/Sources/gameplay/MedicinalPowder/HerbConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,9 @@
     <t>icon名</t>
   </si>
   <si>
+    <t>界面上功力加成系数</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Icon</t>
+  </si>
+  <si>
+    <t>PowerRatio</t>
   </si>
   <si>
     <t>赤胆壮气丸</t>
@@ -235,14 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +251,37 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,6 +293,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -271,9 +355,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,90 +371,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,187 +399,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,24 +608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -631,6 +619,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,17 +677,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,10 +711,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,133 +723,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,12 +1207,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1217,15 +1223,17 @@
     <col min="5" max="5" width="14.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.625" style="2" customWidth="1"/>
-    <col min="8" max="11" width="10.7583333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="8" max="10" width="10.7583333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.7583333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1256,124 +1264,136 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2">
         <v>0.2</v>
@@ -1382,42 +1402,45 @@
         <v>50</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="2">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="M5" s="2">
         <v>1015</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2">
         <v>0.2</v>
@@ -1426,45 +1449,48 @@
         <v>50</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="2">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="M6" s="2">
         <v>1016</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="N6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="Q6" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2">
         <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2">
         <v>0.1</v>
@@ -1473,45 +1499,48 @@
         <v>50</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="2">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="M7" s="2">
         <v>1017</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="N7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -1520,84 +1549,87 @@
         <v>150</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="2">
+        <v>52</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M8" s="2">
         <v>1018</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="N8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="12:16">
-      <c r="L9" s="2">
+    <row r="9" spans="13:17">
+      <c r="M9" s="2">
         <v>1019</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="N9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="Q9" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="10" spans="12:15">
-      <c r="L10" s="2">
+    <row r="10" spans="13:16">
+      <c r="M10" s="2">
         <v>1020</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="N10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="11" spans="12:16">
-      <c r="L11" s="2">
+    <row r="11" spans="13:17">
+      <c r="M11" s="2">
         <v>1021</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="N11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="Q11" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="12" spans="12:16">
-      <c r="L12" s="2">
+    <row r="12" spans="13:17">
+      <c r="M12" s="2">
         <v>1022</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="N12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
